--- a/biology/Médecine/1109_en_santé_et_médecine/1109_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1109_en_santé_et_médecine/1109_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1109_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1109_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1109 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1109_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1109_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Une maison-Dieu est mentionnée à Meursault en Bourgogne[1].
-Fondation de St. John the Baptist's Hospital à Ripon[2] et première mention de St. Michael's à Whitby, dans le Yorkshire en Angleterre[3].
-Fondation de l'hôpital de Ponte a Valle à Arezzo en Toscane[4].
-Fondation possible, par Eustache III, comte de Boulogne, de l'hôpital Sainte-Catherine, d'abord refuge de pèlerins, mais où, au début du XVe siècle, « les pauvres, infirmes et malades, s[er]ont reçus et soignés », et qui restera en fonction jusqu'en 1692, à la fondation de l'hôpital Saint-Louis[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Une maison-Dieu est mentionnée à Meursault en Bourgogne.
+Fondation de St. John the Baptist's Hospital à Ripon et première mention de St. Michael's à Whitby, dans le Yorkshire en Angleterre.
+Fondation de l'hôpital de Ponte a Valle à Arezzo en Toscane.
+Fondation possible, par Eustache III, comte de Boulogne, de l'hôpital Sainte-Catherine, d'abord refuge de pèlerins, mais où, au début du XVe siècle, « les pauvres, infirmes et malades, s[er]ont reçus et soignés », et qui restera en fonction jusqu'en 1692, à la fondation de l'hôpital Saint-Louis.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1109_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1109_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Événement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1109-1111 : grande famine en Europe occidentale (Irlande, Allemagne, France du Nord), documentée en France par Orderic Vital dans son Historia ecclesiastica, et due à des perturbations climatiques probablement provoquées par un volcan japonais, le mont Asama, entré en éruption l'année précédente 1108[6],[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1109-1111 : grande famine en Europe occidentale (Irlande, Allemagne, France du Nord), documentée en France par Orderic Vital dans son Historia ecclesiastica, et due à des perturbations climatiques probablement provoquées par un volcan japonais, le mont Asama, entré en éruption l'année précédente 1108,.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1109_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1109_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Dans le débat sur les causes des maladies et près d'un siècle avant la diffusion des Questions salernitaines, le médecin Pierre Alphonse (c.1062 – c.1140) soutient dans son Dialogus contra Judeos la thèse du rôle majeur des passions de l'âme sur l'affaiblissement du corps[8].
-Vers 1109 : composition du Chanyu baoqing ji (« Précieux et Judicieux Recueil d'enseignements sur la maternité »), attribué à Guo Jizhong[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dans le débat sur les causes des maladies et près d'un siècle avant la diffusion des Questions salernitaines, le médecin Pierre Alphonse (c.1062 – c.1140) soutient dans son Dialogus contra Judeos la thèse du rôle majeur des passions de l'âme sur l'affaiblissement du corps.
+Vers 1109 : composition du Chanyu baoqing ji (« Précieux et Judicieux Recueil d'enseignements sur la maternité »), attribué à Guo Jizhong.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1109_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1109_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1109 ? ou 1110[10],[11] ? : Ibn Tufayl (mort en 1185), philosophe, astronome, médecin et mathématicien andalou.</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1109 ? ou 1110, ? : Ibn Tufayl (mort en 1185), philosophe, astronome, médecin et mathématicien andalou.</t>
         </is>
       </c>
     </row>
@@ -617,7 +637,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1109_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1109_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,9 +655,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>21 avril : Anselme de Cantorbéry (né vers 1033), moine bénédictin, abbé, archevêque, docteur de l'Église, théologien et philosophe scolastique, et peut-être médecin[12].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>21 avril : Anselme de Cantorbéry (né vers 1033), moine bénédictin, abbé, archevêque, docteur de l'Église, théologien et philosophe scolastique, et peut-être médecin.</t>
         </is>
       </c>
     </row>
